--- a/data/trans_dic/Predimed_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Habitat-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2151944302968852</v>
+        <v>0.2151944302968853</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2208044726822493</v>
+        <v>0.2208044726822492</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2181102742440303</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1820783665501548</v>
+        <v>0.1848295071227382</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1954818433429239</v>
+        <v>0.1964899008026967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.198510012814397</v>
+        <v>0.1981826396755641</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2491642734071621</v>
+        <v>0.2522368726035581</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2489042385460321</v>
+        <v>0.2487347300043672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2403357136717677</v>
+        <v>0.2393176440635953</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1345111757957917</v>
+        <v>0.1324500955646938</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1485526212352154</v>
+        <v>0.1487615905764892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.146656999904484</v>
+        <v>0.1471835650397583</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1870381943880147</v>
+        <v>0.1863129643905973</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1925796523754187</v>
+        <v>0.1919565536564361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1817566701803469</v>
+        <v>0.1820652699822046</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.1805266543946876</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1774275959514708</v>
+        <v>0.1774275959514707</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.145062087384007</v>
+        <v>0.1431305534433046</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1564153700477855</v>
+        <v>0.154519544174979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1568582185408738</v>
+        <v>0.1585523104391575</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.206398937782775</v>
+        <v>0.2075619630352827</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2064668257583898</v>
+        <v>0.207277296134369</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2006868848327608</v>
+        <v>0.2013235919194018</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1464217869214119</v>
+        <v>0.1464171250797973</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1753946012254177</v>
+        <v>0.1729491322672303</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1657435878740512</v>
+        <v>0.16660832079014</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.19675345698288</v>
+        <v>0.1975764370835285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2163833648144584</v>
+        <v>0.2171491866707487</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1997790096824041</v>
+        <v>0.2006556733344633</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1762049522524151</v>
+        <v>0.176204952252415</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1891432948173653</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1619818452644344</v>
+        <v>0.1617682454718691</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1782333375836077</v>
+        <v>0.1780243308393723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1739184650229608</v>
+        <v>0.1740681097043225</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1912824407906903</v>
+        <v>0.1928439616915051</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2021520911359051</v>
+        <v>0.2016148370559475</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1923780378109735</v>
+        <v>0.192444072712786</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>113983</v>
+        <v>115705</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>132441</v>
+        <v>133124</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>258761</v>
+        <v>258334</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>155979</v>
+        <v>157903</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>168635</v>
+        <v>168520</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>313282</v>
+        <v>311955</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>130461</v>
+        <v>128462</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>147543</v>
+        <v>147750</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>287902</v>
+        <v>288935</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>181407</v>
+        <v>180704</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>191271</v>
+        <v>190652</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>356806</v>
+        <v>357412</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>105818</v>
+        <v>104409</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>118537</v>
+        <v>117100</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>233295</v>
+        <v>235815</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>150561</v>
+        <v>151409</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156468</v>
+        <v>157082</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>298481</v>
+        <v>299428</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>139383</v>
+        <v>139378</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>189954</v>
+        <v>187305</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>337277</v>
+        <v>339037</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>187295</v>
+        <v>188078</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>234345</v>
+        <v>235174</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>406537</v>
+        <v>408321</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>530862</v>
+        <v>530162</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>625876</v>
+        <v>625142</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1180706</v>
+        <v>1181721</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>626888</v>
+        <v>632006</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>709868</v>
+        <v>707981</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1306025</v>
+        <v>1306473</v>
       </c>
     </row>
     <row r="24">
